--- a/similarities/split_global/harmonic_similarity_timestamps_396.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_396.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,90 +484,102 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Db/5', 'Db', 'Ab/3']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D', 'D/7', 'A/3']]</t>
+          <t>['A:7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:40.436000', '0:01:44.002000')]</t>
+          <t>('0:00:49.280000', '0:00:56.880000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:10.129790', '0:00:11.569428')]</t>
+          <t>('0:00:02.900000', '0:00:11.630000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=100.436']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=49.28</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-30#t=10.12979']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=2.9</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db', 'Ab']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:51.920000', '0:01:55.980000')]</t>
+          <t>('0:00:00.240000', '0:00:05.080000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:03.129454', '0:00:06.531178')]</t>
+          <t>('0:00:01.560000', '0:00:06.900000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,602 +588,630 @@
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:01.880000', '0:01:07.800000')]</t>
+          <t>('0:01:49.520000', '0:01:54.200000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:35.260000', '0:01:53.640000')]</t>
+          <t>('0:00:47.580000', '0:00:50.040000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=61.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=95.26']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>isophonics_13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'A:7', 'D']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'A:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['D:7', 'G', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:18.651995', '0:00:24.735623')]</t>
+          <t>('0:00:52.020000', '0:00:58.840000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:14.480000', '0:00:22.820000')]</t>
+          <t>('0:00:23.629455', '0:00:29.120975')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=18.651995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.02</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=14.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-13#t=23.629455</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:07.900000', '0:00:19.440000')]</t>
+          <t>('0:01:04.300000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:24.420000', '0:00:32.620000')]</t>
+          <t>('0:00:22.770000', '0:00:29.490000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=7.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=24.42']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:13.080000', '0:00:19.340000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:17.581738', '0:00:30.271443')]</t>
+          <t>('0:00:45.580000', '0:00:49.600000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E'], ['E:7', 'A', 'D']]</t>
+          <t>['A', 'A:7/3', 'D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'A:maj'], ['A:7/G', 'D:maj/F#', 'G:maj']]</t>
+          <t>['Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:32.746870', '0:01:36.589773'), ('0:00:26.987959', '0:00:33.059977')]</t>
+          <t>('0:00:14.541510', '0:00:23.411533')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:01.020000', '0:01:08.700000'), ('0:00:56.280000', '0:01:02.780000')]</t>
+          <t>('0:00:21.020000', '0:00:26.800000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=92.74687', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=26.987959']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=14.54151</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=61.02', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=56.28']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=21.02</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>isophonics_62</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D', 'A']]</t>
+          <t>['A', 'B', 'E']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E', 'B']]</t>
+          <t>['Ab', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:54.037586', '0:01:03.046928')]</t>
+          <t>('0:00:21.577709', '0:00:29.878843')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:34.866000', '0:01:05.747000')]</t>
+          <t>('0:00:07.043000', '0:00:10.286000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=54.037586']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-62#t=21.577709</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=34.866']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.043</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
+          <t>['E', 'A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A']]</t>
+          <t>['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:40.049000', '0:00:48.539000')]</t>
+          <t>('0:00:08.413696', '0:00:13.057687')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:25.040000', '0:00:42.400000')]</t>
+          <t>('0:03:37.493000', '0:03:43.713000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=40.049']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=25.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:00:00.580000', '0:00:08.960000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:04:03.440000', '0:04:09.260000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:12.280000', '0:00:19.740000'), ('0:00:23.300000', '0:00:29.360000')]</t>
+          <t>('0:04:43.300000', '0:04:50.060000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:04.840000', '0:00:10.640000'), ('0:00:12.060000', '0:00:17.060000')]</t>
+          <t>('0:01:17.720000', '0:01:28')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=4.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>schubert-winterreise_106</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_184</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E', 'A:min', 'G', 'F']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:26.900000', '0:00:30.840000')]</t>
+          <t>('0:00:39.840000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:39.201655', '0:00:46.167641')]</t>
+          <t>('0:00:40.380000', '0:00:42.280000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=26.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-184#t=39.201655']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj'], ['D:maj/A', 'A:maj', 'A:7', 'D:maj/A']]</t>
+          <t>['G', 'C', 'F']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E'], ['A', 'E', 'E:7', 'A']]</t>
+          <t>['F:maj/A', 'A#:maj/D', 'D#:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:08.700000'), ('0:02:14.740000', '0:02:30.760000')]</t>
+          <t>('0:00:07.265318', '0:00:12.547858')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:50.260000'), ('0:00:00.522000', '0:00:07.205000')]</t>
+          <t>('0:03:54.420000', '0:03:57.900000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=134.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=7.265318</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=0.522']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=234.42</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>isophonics_4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:7', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:23.460000', '0:01:30.900000')]</t>
+          <t>('0:02:36.152000', '0:02:39.022000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
+          <t>('0:00:07.400000', '0:00:19.820000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=156.152</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=7.4</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_197</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:12.971000', '0:00:23.861000')]</t>
+          <t>('0:00:24.180000', '0:00:30.020000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:16.088141', '0:00:27.709728')]</t>
+          <t>('0:00:08.260000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=12.971']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=24.18</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-197#t=16.088141']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
